--- a/data/trans_camb/P19-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P19-Clase-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 9,9</t>
+          <t>-4,16; 9,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 9,58</t>
+          <t>-3,47; 9,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 10,98</t>
+          <t>-1,4; 11,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-11,17; 4,82</t>
+          <t>-11,03; 4,93</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,76; 8,55</t>
+          <t>-6,87; 8,8</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 11,81</t>
+          <t>-1,48; 12,01</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 5,75</t>
+          <t>-4,01; 6,15</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 7,51</t>
+          <t>-2,73; 7,35</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,06; 10,14</t>
+          <t>0,66; 9,97</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-9,43; 33,64</t>
+          <t>-11,33; 33,16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-10,92; 33,42</t>
+          <t>-9,89; 32,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 37,59</t>
+          <t>-3,95; 38,64</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-25,12; 12,7</t>
+          <t>-25,07; 12,54</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-15,57; 23,29</t>
+          <t>-15,55; 24,11</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-4,92; 32,99</t>
+          <t>-3,23; 32,36</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-10,92; 17,26</t>
+          <t>-10,89; 18,62</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-6,15; 22,94</t>
+          <t>-7,22; 22,47</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,5; 30,68</t>
+          <t>1,38; 30,07</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,51; 8,79</t>
+          <t>-4,71; 9,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,41; 8,46</t>
+          <t>-6,54; 7,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,99; 6,02</t>
+          <t>-8,17; 5,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,7; 8,94</t>
+          <t>-7,97; 7,85</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,13; 8,83</t>
+          <t>-4,74; 9,16</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,27; 9,24</t>
+          <t>-4,05; 9,19</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,54; 5,64</t>
+          <t>-4,57; 5,85</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 6,5</t>
+          <t>-3,43; 6,39</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 5,56</t>
+          <t>-4,28; 4,91</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-15,92; 31,89</t>
+          <t>-14,03; 34,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-18,63; 30,95</t>
+          <t>-18,41; 26,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-20,62; 22,37</t>
+          <t>-22,69; 20,32</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-15,77; 25,32</t>
+          <t>-18,27; 21,61</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-11,68; 24,06</t>
+          <t>-10,84; 25,06</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-9,76; 25,29</t>
+          <t>-9,44; 25,31</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-11,94; 17,06</t>
+          <t>-11,9; 17,29</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-10,79; 19,49</t>
+          <t>-9,14; 19,37</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-11,02; 16,65</t>
+          <t>-11,23; 15,13</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,86; 1,88</t>
+          <t>-8,5; 1,35</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 7,88</t>
+          <t>-2,43; 8,2</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-18,98; 8,27</t>
+          <t>-19,89; 7,58</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 14,99</t>
+          <t>-2,92; 15,75</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,03; 14,48</t>
+          <t>-7,01; 14,85</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,66; 9,53</t>
+          <t>-7,71; 9,87</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 4,12</t>
+          <t>-4,46; 4,64</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 7,76</t>
+          <t>-1,92; 8,04</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-16,6; 6,66</t>
+          <t>-17,72; 6,28</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-29,83; 9,19</t>
+          <t>-31,85; 5,95</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-10,1; 36,24</t>
+          <t>-9,58; 38,05</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-69,22; 35,05</t>
+          <t>-74,83; 31,45</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-9,09; 58,87</t>
+          <t>-8,38; 61,67</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-20,1; 57,22</t>
+          <t>-19,66; 59,61</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-21,15; 38,1</t>
+          <t>-21,61; 40,64</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-17,97; 17,92</t>
+          <t>-15,28; 19,22</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-7,5; 34,16</t>
+          <t>-7,36; 34,06</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-62,06; 27,07</t>
+          <t>-64,28; 25,15</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,79; -0,36</t>
+          <t>-6,88; -0,12</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,16; 6,92</t>
+          <t>0,46; 7,57</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 2,92</t>
+          <t>-3,87; 3,02</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-9,26; 0,08</t>
+          <t>-9,37; 0,14</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 7,92</t>
+          <t>-1,56; 8,02</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-20,83; 5,14</t>
+          <t>-19,72; 5,42</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-6,3; -0,71</t>
+          <t>-6,44; -0,54</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,01; 6,95</t>
+          <t>1,05; 7,11</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-9,15; 2,84</t>
+          <t>-8,1; 3,07</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-27,88; -1,41</t>
+          <t>-28,72; -0,5</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,89; 33,04</t>
+          <t>2,0; 36,46</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-17,95; 13,98</t>
+          <t>-16,36; 14,42</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-26,97; 0,27</t>
+          <t>-27,28; 0,56</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 27,17</t>
+          <t>-4,38; 27,64</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-62,64; 16,46</t>
+          <t>-55,04; 17,57</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-22,76; -2,79</t>
+          <t>-23,47; -2,22</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>3,68; 28,27</t>
+          <t>3,98; 28,58</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-33,41; 10,89</t>
+          <t>-29,84; 12,3</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 7,03</t>
+          <t>-3,82; 7,26</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,16; 10,7</t>
+          <t>-0,19; 10,46</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 7,25</t>
+          <t>-5,72; 6,37</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-6,7; 3,54</t>
+          <t>-7,01; 3,74</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,58; 5,81</t>
+          <t>-4,85; 5,85</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-13,49; 3,19</t>
+          <t>-12,79; 3,27</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 3,16</t>
+          <t>-4,27; 3,25</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 5,5</t>
+          <t>-2,16; 5,54</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-8,79; 2,97</t>
+          <t>-8,26; 3,5</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-17,33; 44,73</t>
+          <t>-17,98; 47,09</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>0,79; 70,14</t>
+          <t>-1,1; 67,23</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-24,86; 45,98</t>
+          <t>-27,23; 40,39</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-20,19; 12,9</t>
+          <t>-21,11; 13,27</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-14,3; 20,98</t>
+          <t>-14,65; 21,01</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-41,37; 12,99</t>
+          <t>-39,95; 13,18</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-15,44; 13,32</t>
+          <t>-15,25; 13,43</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-6,12; 22,94</t>
+          <t>-7,61; 23,54</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-31,79; 12,89</t>
+          <t>-30,18; 14,89</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>2,36; 17,71</t>
+          <t>1,87; 17,06</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>9,74; 25,48</t>
+          <t>10,21; 24,98</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 19,26</t>
+          <t>-3,51; 18,94</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 3,65</t>
+          <t>-3,72; 3,83</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>1,46; 8,76</t>
+          <t>1,23; 8,77</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-7,43; 0,36</t>
+          <t>-7,76; 0,11</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 5,33</t>
+          <t>-1,14; 5,53</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>4,32; 11,34</t>
+          <t>4,43; 11,02</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 2,41</t>
+          <t>-5,32; 2,96</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>8,62; 87,74</t>
+          <t>7,48; 85,0</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>34,97; 125,22</t>
+          <t>37,37; 121,56</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-12,32; 90,89</t>
+          <t>-15,43; 84,88</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-12,87; 14,58</t>
+          <t>-13,13; 15,07</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>5,03; 34,68</t>
+          <t>4,4; 35,36</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-26,23; 1,43</t>
+          <t>-27,72; 0,45</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 21,68</t>
+          <t>-4,14; 22,4</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>15,79; 46,45</t>
+          <t>15,45; 43,86</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-19,72; 10,14</t>
+          <t>-19,99; 11,66</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 1,86</t>
+          <t>-2,42; 2,05</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>1,74; 6,42</t>
+          <t>2,19; 6,42</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 3,09</t>
+          <t>-5,51; 3,3</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 1,16</t>
+          <t>-3,08; 1,37</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>0,97; 5,33</t>
+          <t>0,82; 5,29</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-7,14; 1,76</t>
+          <t>-7,89; 1,77</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 0,96</t>
+          <t>-2,23; 0,94</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>2,15; 5,2</t>
+          <t>2,24; 5,27</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 1,77</t>
+          <t>-4,46; 2,08</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-9,63; 7,89</t>
+          <t>-9,44; 8,66</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>6,79; 26,76</t>
+          <t>8,06; 26,88</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-20,43; 12,5</t>
+          <t>-20,89; 13,7</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-10,19; 3,81</t>
+          <t>-9,53; 4,6</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>2,99; 17,7</t>
+          <t>2,5; 17,44</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-22,44; 5,7</t>
+          <t>-24,93; 5,46</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-7,25; 3,48</t>
+          <t>-7,75; 3,4</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>7,44; 18,91</t>
+          <t>7,83; 19,17</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-14,19; 6,26</t>
+          <t>-15,62; 7,55</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P19-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P19-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
